--- a/image analysis examples/MOSHE1/res.xlsx
+++ b/image analysis examples/MOSHE1/res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>dendrite id</t>
   </si>
@@ -46,139 +46,67 @@
     <t>distance to parallel [μm]</t>
   </si>
   <si>
-    <t>(x: 7, y: 46)</t>
-  </si>
-  <si>
-    <t>(x: 102, y: 134)</t>
-  </si>
-  <si>
-    <t>9 , 6</t>
-  </si>
-  <si>
-    <t>1.98 , 8.9</t>
-  </si>
-  <si>
-    <t>(x: 44, y: 237)</t>
-  </si>
-  <si>
-    <t>(x: 98, y: 245)</t>
+    <t>(x: 0, y: 47)</t>
+  </si>
+  <si>
+    <t>(x: 83, y: 119)</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>(x: 81, y: 188)</t>
-  </si>
-  <si>
-    <t>(x: 201, y: 201)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>(x: 102, y: 228)</t>
-  </si>
-  <si>
-    <t>(x: 233, y: 146)</t>
-  </si>
-  <si>
-    <t>(x: 89, y: 8)</t>
-  </si>
-  <si>
-    <t>(x: 104, y: 188)</t>
-  </si>
-  <si>
-    <t>10 , 8</t>
-  </si>
-  <si>
-    <t>7.41 , 1.1</t>
-  </si>
-  <si>
-    <t>(x: 81, y: 22)</t>
-  </si>
-  <si>
-    <t>(x: 244, y: 227)</t>
-  </si>
-  <si>
-    <t>1 , 9</t>
-  </si>
-  <si>
-    <t>8.9 , 10.81</t>
-  </si>
-  <si>
-    <t>(x: 111, y: 10)</t>
-  </si>
-  <si>
-    <t>(x: 83, y: 73)</t>
-  </si>
-  <si>
-    <t>11 , 12</t>
-  </si>
-  <si>
-    <t>21.75 , 29.25</t>
-  </si>
-  <si>
-    <t>(x: 66, y: 77)</t>
-  </si>
-  <si>
-    <t>(x: 116, y: 255)</t>
-  </si>
-  <si>
-    <t>10 , 5</t>
-  </si>
-  <si>
-    <t>6.18 , 1.1</t>
-  </si>
-  <si>
-    <t>(x: 77, y: 127)</t>
-  </si>
-  <si>
-    <t>(x: 182, y: 253)</t>
-  </si>
-  <si>
-    <t>1 , 6</t>
-  </si>
-  <si>
-    <t>1.98 , 10.81</t>
-  </si>
-  <si>
-    <t>(x: 45, y: 145)</t>
-  </si>
-  <si>
-    <t>(x: 77, y: 253)</t>
-  </si>
-  <si>
-    <t>8 , 5</t>
-  </si>
-  <si>
-    <t>6.18 , 7.41</t>
-  </si>
-  <si>
-    <t>(x: 214, y: 99)</t>
-  </si>
-  <si>
-    <t>(x: 198, y: 170)</t>
-  </si>
-  <si>
-    <t>12 , 7</t>
-  </si>
-  <si>
-    <t>6.63 , 21.75</t>
-  </si>
-  <si>
-    <t>(x: 248, y: 133)</t>
-  </si>
-  <si>
-    <t>(x: 218, y: 255)</t>
-  </si>
-  <si>
-    <t>11 , 7</t>
-  </si>
-  <si>
-    <t>6.63 , 29.25</t>
+    <t>8.97</t>
+  </si>
+  <si>
+    <t>(x: 88, y: 203)</t>
+  </si>
+  <si>
+    <t>(x: 254, y: 216)</t>
+  </si>
+  <si>
+    <t>(x: 105, y: 168)</t>
+  </si>
+  <si>
+    <t>(x: 188, y: 251)</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>(x: 147, y: 197)</t>
+  </si>
+  <si>
+    <t>(x: 246, y: 137)</t>
+  </si>
+  <si>
+    <t>(x: 232, y: 0)</t>
+  </si>
+  <si>
+    <t>(x: 212, y: 254)</t>
+  </si>
+  <si>
+    <t>(x: 95, y: 13)</t>
+  </si>
+  <si>
+    <t>(x: 120, y: 254)</t>
+  </si>
+  <si>
+    <t>(x: 75, y: 22)</t>
+  </si>
+  <si>
+    <t>(x: 248, y: 238)</t>
+  </si>
+  <si>
+    <t>(x: 105, y: 16)</t>
+  </si>
+  <si>
+    <t>(x: 83, y: 72)</t>
+  </si>
+  <si>
+    <t>(x: 58, y: 92)</t>
+  </si>
+  <si>
+    <t>(x: 116, y: 253)</t>
   </si>
 </sst>
 </file>
@@ -510,7 +438,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21.63</v>
+        <v>18.35</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -562,16 +490,16 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>42.81</v>
+        <v>40.94</v>
       </c>
       <c r="F2">
-        <v>27.81</v>
+        <v>35.94</v>
       </c>
       <c r="G2">
-        <v>57.81</v>
+        <v>45.94</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -585,7 +513,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.119999999999999</v>
+        <v>27.81</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -594,22 +522,16 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>8.43</v>
+        <v>4.48</v>
       </c>
       <c r="F3">
-        <v>-6.57</v>
+        <v>-0.52</v>
       </c>
       <c r="G3">
-        <v>23.43</v>
+        <v>9.48</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -617,31 +539,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>20.16</v>
+        <v>19.6</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>6.18</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>-8.82</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>21.18</v>
+        <v>50</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -649,22 +571,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>25.81</v>
+        <v>19.33</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>147.96</v>
+        <v>148.78</v>
       </c>
       <c r="F5">
-        <v>132.96</v>
+        <v>143.78</v>
       </c>
       <c r="G5">
-        <v>162.96</v>
+        <v>153.78</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -675,31 +597,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>30.16</v>
+        <v>42.55</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>85.23999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="F6">
-        <v>70.23999999999999</v>
+        <v>89.5</v>
       </c>
       <c r="G6">
-        <v>100.24</v>
+        <v>99.5</v>
       </c>
       <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -707,31 +623,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>43.74</v>
+        <v>40.46</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7">
-        <v>51.51</v>
+        <v>84.08</v>
       </c>
       <c r="F7">
-        <v>36.51</v>
+        <v>79.08</v>
       </c>
       <c r="G7">
-        <v>66.51000000000001</v>
+        <v>89.08</v>
       </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -739,31 +649,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11.51</v>
+        <v>46.22</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>113.96</v>
+        <v>51.31</v>
       </c>
       <c r="F8">
-        <v>98.95999999999999</v>
+        <v>46.31</v>
       </c>
       <c r="G8">
-        <v>128.96</v>
+        <v>56.31</v>
       </c>
       <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -771,31 +675,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>30.88</v>
+        <v>10.05</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>74.31</v>
+        <v>111.45</v>
       </c>
       <c r="F9">
-        <v>59.31</v>
+        <v>106.45</v>
       </c>
       <c r="G9">
-        <v>89.31</v>
+        <v>116.45</v>
       </c>
       <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -803,127 +701,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>27.39</v>
+        <v>28.58</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E10">
-        <v>50.19</v>
+        <v>70.19</v>
       </c>
       <c r="F10">
-        <v>35.19</v>
+        <v>65.19</v>
       </c>
       <c r="G10">
-        <v>65.19</v>
+        <v>75.19</v>
       </c>
       <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>18.81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>73.5</v>
-      </c>
-      <c r="F11">
-        <v>58.5</v>
-      </c>
-      <c r="G11">
-        <v>88.5</v>
-      </c>
-      <c r="H11">
-        <v>2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>12.15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12">
-        <v>102.7</v>
-      </c>
-      <c r="F12">
-        <v>87.7</v>
-      </c>
-      <c r="G12">
-        <v>117.7</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>20.98</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13">
-        <v>103.82</v>
-      </c>
-      <c r="F13">
-        <v>88.81999999999999</v>
-      </c>
-      <c r="G13">
-        <v>118.82</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
